--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_90.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:08.200000', '0:00:12.660000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,97 +634,95 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -716,80 +730,90 @@
           <t>schubert-winterreise_156</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:03.320000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.64, 11.78)]</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:17.900000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -798,407 +822,354 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.14375</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3909774436090225</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['B', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:07.205000', '0:00:18.764000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:00.459543', '0:00:06.357029')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:01:37.760000', '0:01:49.380000'), ('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:26.200000', '0:00:33.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
